--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H2">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.452892666666667</v>
+        <v>4.467713</v>
       </c>
       <c r="N2">
-        <v>25.358678</v>
+        <v>13.403139</v>
       </c>
       <c r="O2">
-        <v>0.5664982795292011</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="P2">
-        <v>0.566498279529201</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="Q2">
-        <v>346.0853643653653</v>
+        <v>2.483753558942</v>
       </c>
       <c r="R2">
-        <v>3114.768279288288</v>
+        <v>22.353782030478</v>
       </c>
       <c r="S2">
-        <v>0.1463265059301213</v>
+        <v>0.002323964910234435</v>
       </c>
       <c r="T2">
-        <v>0.1463265059301213</v>
+        <v>0.002323964910234434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H3">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.288553</v>
       </c>
       <c r="O3">
-        <v>0.2298403557687432</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="P3">
-        <v>0.2298403557687431</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="Q3">
-        <v>140.4141656673653</v>
+        <v>1.906585474500667</v>
       </c>
       <c r="R3">
-        <v>1263.727491006288</v>
+        <v>17.159269270506</v>
       </c>
       <c r="S3">
-        <v>0.05936776402803282</v>
+        <v>0.001783928089463761</v>
       </c>
       <c r="T3">
-        <v>0.05936776402803281</v>
+        <v>0.001783928089463761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H4">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.415405666666667</v>
+        <v>2.691692</v>
       </c>
       <c r="N4">
-        <v>7.246217000000001</v>
+        <v>8.075076000000001</v>
       </c>
       <c r="O4">
-        <v>0.1618763195618971</v>
+        <v>0.2437028015116252</v>
       </c>
       <c r="P4">
-        <v>0.161876319561897</v>
+        <v>0.2437028015116253</v>
       </c>
       <c r="Q4">
-        <v>98.89354842218134</v>
+        <v>1.496403100328</v>
       </c>
       <c r="R4">
-        <v>890.041935799632</v>
+        <v>13.467627902952</v>
       </c>
       <c r="S4">
-        <v>0.04181265343648615</v>
+        <v>0.001400134197778314</v>
       </c>
       <c r="T4">
-        <v>0.04181265343648614</v>
+        <v>0.001400134197778314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H5">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6234873333333333</v>
+        <v>0.456055</v>
       </c>
       <c r="N5">
-        <v>1.870462</v>
+        <v>1.368165</v>
       </c>
       <c r="O5">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="P5">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="Q5">
-        <v>25.52733714279466</v>
+        <v>0.25353648037</v>
       </c>
       <c r="R5">
-        <v>229.7460342851519</v>
+        <v>2.28182832333</v>
       </c>
       <c r="S5">
-        <v>0.01079307718387632</v>
+        <v>0.0002372255821125854</v>
       </c>
       <c r="T5">
-        <v>0.01079307718387632</v>
+        <v>0.0002372255821125854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>239.063137</v>
       </c>
       <c r="I6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.452892666666667</v>
+        <v>4.467713</v>
       </c>
       <c r="N6">
-        <v>25.358678</v>
+        <v>13.403139</v>
       </c>
       <c r="O6">
-        <v>0.5664982795292011</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="P6">
-        <v>0.566498279529201</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="Q6">
-        <v>673.5916792058763</v>
+        <v>356.0218283318937</v>
       </c>
       <c r="R6">
-        <v>6062.325112852886</v>
+        <v>3204.196454987043</v>
       </c>
       <c r="S6">
-        <v>0.2847977030827106</v>
+        <v>0.3331176852639386</v>
       </c>
       <c r="T6">
-        <v>0.2847977030827105</v>
+        <v>0.3331176852639386</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>239.063137</v>
       </c>
       <c r="I7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.288553</v>
       </c>
       <c r="O7">
-        <v>0.2298403557687432</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="P7">
-        <v>0.2298403557687431</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="Q7">
         <v>273.2904172634179</v>
@@ -883,10 +883,10 @@
         <v>2459.613755370761</v>
       </c>
       <c r="S7">
-        <v>0.1155484628356704</v>
+        <v>0.2557086783980492</v>
       </c>
       <c r="T7">
-        <v>0.1155484628356703</v>
+        <v>0.2557086783980492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>239.063137</v>
       </c>
       <c r="I8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.415405666666667</v>
+        <v>2.691692</v>
       </c>
       <c r="N8">
-        <v>7.246217000000001</v>
+        <v>8.075076000000001</v>
       </c>
       <c r="O8">
-        <v>0.1618763195618971</v>
+        <v>0.2437028015116252</v>
       </c>
       <c r="P8">
-        <v>0.161876319561897</v>
+        <v>0.2437028015116253</v>
       </c>
       <c r="Q8">
-        <v>192.4781519336366</v>
+        <v>214.4947777859347</v>
       </c>
       <c r="R8">
-        <v>1732.303367402729</v>
+        <v>1930.453000073412</v>
       </c>
       <c r="S8">
-        <v>0.081380660207874</v>
+        <v>0.2006955703026272</v>
       </c>
       <c r="T8">
-        <v>0.08138066020787399</v>
+        <v>0.2006955703026272</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>239.063137</v>
       </c>
       <c r="I9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6234873333333333</v>
+        <v>0.456055</v>
       </c>
       <c r="N9">
-        <v>1.870462</v>
+        <v>1.368165</v>
       </c>
       <c r="O9">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="P9">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="Q9">
-        <v>49.68427926214378</v>
+        <v>36.34197964817834</v>
       </c>
       <c r="R9">
-        <v>447.158513359294</v>
+        <v>327.077816833605</v>
       </c>
       <c r="S9">
-        <v>0.02100674496136955</v>
+        <v>0.03400397159643996</v>
       </c>
       <c r="T9">
-        <v>0.02100674496136955</v>
+        <v>0.03400397159643996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H10">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.452892666666667</v>
+        <v>4.467713</v>
       </c>
       <c r="N10">
-        <v>25.358678</v>
+        <v>13.403139</v>
       </c>
       <c r="O10">
-        <v>0.5664982795292011</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="P10">
-        <v>0.566498279529201</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="Q10">
-        <v>2.928265165741111</v>
+        <v>1.540019181862333</v>
       </c>
       <c r="R10">
-        <v>26.35438649167</v>
+        <v>13.860172636761</v>
       </c>
       <c r="S10">
-        <v>0.001238084167256005</v>
+        <v>0.001440944302566203</v>
       </c>
       <c r="T10">
-        <v>0.001238084167256005</v>
+        <v>0.001440944302566203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H11">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.288553</v>
       </c>
       <c r="O11">
-        <v>0.2298403557687432</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="P11">
-        <v>0.2298403557687431</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="Q11">
-        <v>1.188059225949444</v>
+        <v>1.182153596527444</v>
       </c>
       <c r="R11">
-        <v>10.692533033545</v>
+        <v>10.639382368747</v>
       </c>
       <c r="S11">
-        <v>0.0005023169809275654</v>
+        <v>0.00110610147570658</v>
       </c>
       <c r="T11">
-        <v>0.0005023169809275652</v>
+        <v>0.00110610147570658</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H12">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.415405666666667</v>
+        <v>2.691692</v>
       </c>
       <c r="N12">
-        <v>7.246217000000001</v>
+        <v>8.075076000000001</v>
       </c>
       <c r="O12">
-        <v>0.1618763195618971</v>
+        <v>0.2437028015116252</v>
       </c>
       <c r="P12">
-        <v>0.161876319561897</v>
+        <v>0.2437028015116253</v>
       </c>
       <c r="Q12">
-        <v>0.8367488567227778</v>
+        <v>0.9278253351693333</v>
       </c>
       <c r="R12">
-        <v>7.530739710504999</v>
+        <v>8.350428016524001</v>
       </c>
       <c r="S12">
-        <v>0.0003537813185766744</v>
+        <v>0.0008681350506764934</v>
       </c>
       <c r="T12">
-        <v>0.0003537813185766744</v>
+        <v>0.0008681350506764934</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H13">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6234873333333333</v>
+        <v>0.456055</v>
       </c>
       <c r="N13">
-        <v>1.870462</v>
+        <v>1.368165</v>
       </c>
       <c r="O13">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="P13">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="Q13">
-        <v>0.2159895211588888</v>
+        <v>0.1572020064816667</v>
       </c>
       <c r="R13">
-        <v>1.94390569043</v>
+        <v>1.414818058335</v>
       </c>
       <c r="S13">
-        <v>9.132137675528673E-05</v>
+        <v>0.0001470886455568721</v>
       </c>
       <c r="T13">
-        <v>9.132137675528672E-05</v>
+        <v>0.0001470886455568721</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H14">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.452892666666667</v>
+        <v>4.467713</v>
       </c>
       <c r="N14">
-        <v>25.358678</v>
+        <v>13.403139</v>
       </c>
       <c r="O14">
-        <v>0.5664982795292011</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="P14">
-        <v>0.566498279529201</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="Q14">
-        <v>317.2528546011322</v>
+        <v>72.26845963598333</v>
       </c>
       <c r="R14">
-        <v>2855.27569141019</v>
+        <v>650.4161367238499</v>
       </c>
       <c r="S14">
-        <v>0.1341359863491131</v>
+        <v>0.06761917409481637</v>
       </c>
       <c r="T14">
-        <v>0.1341359863491131</v>
+        <v>0.06761917409481637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H15">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.288553</v>
       </c>
       <c r="O15">
-        <v>0.2298403557687432</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="P15">
-        <v>0.2298403557687431</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="Q15">
-        <v>128.7162055121739</v>
+        <v>55.47490607932778</v>
       </c>
       <c r="R15">
-        <v>1158.445849609565</v>
+        <v>499.27415471395</v>
       </c>
       <c r="S15">
-        <v>0.05442181192411242</v>
+        <v>0.05190600921849317</v>
       </c>
       <c r="T15">
-        <v>0.0544218119241124</v>
+        <v>0.05190600921849316</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H16">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.415405666666667</v>
+        <v>2.691692</v>
       </c>
       <c r="N16">
-        <v>7.246217000000001</v>
+        <v>8.075076000000001</v>
       </c>
       <c r="O16">
-        <v>0.1618763195618971</v>
+        <v>0.2437028015116252</v>
       </c>
       <c r="P16">
-        <v>0.161876319561897</v>
+        <v>0.2437028015116253</v>
       </c>
       <c r="Q16">
-        <v>90.65468745292057</v>
+        <v>43.54004714593334</v>
       </c>
       <c r="R16">
-        <v>815.8921870762852</v>
+        <v>391.8604243134</v>
       </c>
       <c r="S16">
-        <v>0.03832922459896023</v>
+        <v>0.04073896196054323</v>
       </c>
       <c r="T16">
-        <v>0.03832922459896022</v>
+        <v>0.04073896196054323</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H17">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6234873333333333</v>
+        <v>0.456055</v>
       </c>
       <c r="N17">
-        <v>1.870462</v>
+        <v>1.368165</v>
       </c>
       <c r="O17">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="P17">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="Q17">
-        <v>23.40064450216778</v>
+        <v>7.377016464416667</v>
       </c>
       <c r="R17">
-        <v>210.60580051951</v>
+        <v>66.39314817975</v>
       </c>
       <c r="S17">
-        <v>0.009893901618157494</v>
+        <v>0.006902426910997078</v>
       </c>
       <c r="T17">
-        <v>0.009893901618157492</v>
+        <v>0.006902426910997077</v>
       </c>
     </row>
   </sheetData>
